--- a/AMZN DCF.xlsx
+++ b/AMZN DCF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente1\Desktop\DCFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CD5A985-6131-443A-9F79-387A0CB4EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AE17DD-4C47-4D1E-88E6-06922D3E7652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AED10510-8238-4EDE-B018-BD7F77967871}"/>
   </bookViews>
@@ -517,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -634,12 +634,8 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D9B77-4948-48A4-A619-C1F4913720ED}">
   <dimension ref="A1:CH72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1057,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="8">
         <f>WACC!K14</f>
-        <v>0.10551424281059547</v>
+        <v>0.10756074645514095</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -1069,7 +1065,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="7">
-        <v>111.2</v>
+        <v>129.78</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
@@ -1078,7 +1074,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="77">
         <f>(J6/J5)-1</f>
-        <v>-7.3142658932629057E-2</v>
+        <v>-0.16284359902001222</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1092,7 +1088,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
@@ -1101,7 +1097,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="85">
         <f>D71</f>
-        <v>103.06653632669165</v>
+        <v>108.64615771918281</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
@@ -1486,39 +1482,39 @@
         <f>H11*(1+I12)</f>
         <v>560480</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="19">
         <f t="shared" ref="J11:R11" si="1">I11*(1+J12)</f>
         <v>626930</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="19">
         <f t="shared" si="1"/>
         <v>701460</v>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="19">
         <f t="shared" si="1"/>
         <v>786680.00000000012</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="19">
         <f t="shared" si="1"/>
         <v>865030.00000000012</v>
       </c>
-      <c r="N11" s="88">
+      <c r="N11" s="19">
         <f t="shared" si="1"/>
         <v>968500.00000000012</v>
       </c>
-      <c r="O11" s="88">
+      <c r="O11" s="19">
         <f t="shared" si="1"/>
         <v>1011260.0000000001</v>
       </c>
-      <c r="P11" s="88">
+      <c r="P11" s="19">
         <f t="shared" si="1"/>
         <v>1093050.0000000002</v>
       </c>
-      <c r="Q11" s="88">
+      <c r="Q11" s="19">
         <f t="shared" si="1"/>
         <v>1185770.0000000002</v>
       </c>
-      <c r="R11" s="88">
+      <c r="R11" s="19">
         <f t="shared" si="1"/>
         <v>1278900.0000000002</v>
       </c>
@@ -1590,15 +1586,15 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1857,43 +1853,43 @@
       </c>
       <c r="I19" s="22">
         <f>I20*I11</f>
-        <v>173748.8</v>
-      </c>
-      <c r="J19" s="88">
+        <v>168144</v>
+      </c>
+      <c r="J19" s="19">
         <f t="shared" ref="J19:R19" si="7">J20*J11</f>
-        <v>194975.23</v>
-      </c>
-      <c r="K19" s="88">
+        <v>181809.69999999998</v>
+      </c>
+      <c r="K19" s="19">
         <f t="shared" si="7"/>
-        <v>217452.6</v>
-      </c>
-      <c r="L19" s="88">
+        <v>197811.71999999997</v>
+      </c>
+      <c r="L19" s="19">
         <f t="shared" si="7"/>
-        <v>233801.29600000006</v>
-      </c>
-      <c r="M19" s="88">
+        <v>212403.60000000003</v>
+      </c>
+      <c r="M19" s="19">
         <f t="shared" si="7"/>
-        <v>262969.12000000005</v>
-      </c>
-      <c r="N19" s="88">
+        <v>231828.04000000004</v>
+      </c>
+      <c r="N19" s="19">
         <f t="shared" si="7"/>
-        <v>288419.30000000005</v>
-      </c>
-      <c r="O19" s="88">
+        <v>251810.00000000003</v>
+      </c>
+      <c r="O19" s="19">
         <f t="shared" si="7"/>
-        <v>314501.86000000004</v>
-      </c>
-      <c r="P19" s="88">
+        <v>283152.80000000005</v>
+      </c>
+      <c r="P19" s="19">
         <f t="shared" si="7"/>
-        <v>338845.50000000006</v>
-      </c>
-      <c r="Q19" s="88">
+        <v>302774.85000000009</v>
+      </c>
+      <c r="Q19" s="19">
         <f t="shared" si="7"/>
-        <v>353359.46000000008</v>
-      </c>
-      <c r="R19" s="88">
+        <v>314229.0500000001</v>
+      </c>
+      <c r="R19" s="19">
         <f t="shared" si="7"/>
-        <v>374717.70000000007</v>
+        <v>332514.00000000006</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1902,7 +1898,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="81">
-        <f t="shared" ref="C20:R20" si="8">C19/C11</f>
+        <f t="shared" ref="C20:H20" si="8">C19/C11</f>
         <v>0.26912956945115984</v>
       </c>
       <c r="D20" s="81">
@@ -1926,35 +1922,34 @@
         <v>0.30645371539525629</v>
       </c>
       <c r="I20" s="70">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="J20" s="66">
-        <f t="shared" ref="J20:R20" si="9">I20+0.1%</f>
-        <v>0.311</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K20" s="66">
-        <v>0.31</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="L20" s="66">
-        <v>0.29720000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="M20" s="66">
-        <v>0.30399999999999999</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="N20" s="66">
-        <v>0.29780000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="O20" s="66">
-        <v>0.311</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P20" s="66">
-        <v>0.31</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="Q20" s="66">
-        <v>0.29799999999999999</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="R20" s="66">
-        <v>0.29299999999999998</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1967,15 +1962,15 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -2002,43 +1997,43 @@
       </c>
       <c r="I22" s="22">
         <f>I23*I11</f>
-        <v>50443.199999999997</v>
-      </c>
-      <c r="J22" s="88">
-        <f t="shared" ref="J22:R22" si="10">J23*J11</f>
-        <v>53602.515000000007</v>
-      </c>
-      <c r="K22" s="88">
-        <f t="shared" si="10"/>
-        <v>57519.72</v>
-      </c>
-      <c r="L22" s="88">
-        <f t="shared" si="10"/>
-        <v>64507.760000000009</v>
-      </c>
-      <c r="M22" s="88">
-        <f t="shared" si="10"/>
-        <v>70932.460000000006</v>
-      </c>
-      <c r="N22" s="88">
-        <f t="shared" si="10"/>
-        <v>79417.000000000015</v>
-      </c>
-      <c r="O22" s="88">
-        <f t="shared" si="10"/>
-        <v>82923.320000000007</v>
-      </c>
-      <c r="P22" s="88">
-        <f t="shared" si="10"/>
-        <v>89630.10000000002</v>
-      </c>
-      <c r="Q22" s="88">
-        <f t="shared" si="10"/>
-        <v>97233.140000000029</v>
-      </c>
-      <c r="R22" s="88">
-        <f t="shared" si="10"/>
-        <v>104869.80000000002</v>
+        <v>49322.239999999998</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" ref="J22:R22" si="9">J23*J11</f>
+        <v>54229.444999999992</v>
+      </c>
+      <c r="K22" s="19">
+        <f t="shared" si="9"/>
+        <v>58922.640000000007</v>
+      </c>
+      <c r="L22" s="19">
+        <f t="shared" si="9"/>
+        <v>65294.44000000001</v>
+      </c>
+      <c r="M22" s="19">
+        <f t="shared" si="9"/>
+        <v>71797.49000000002</v>
+      </c>
+      <c r="N22" s="19">
+        <f t="shared" si="9"/>
+        <v>80385.500000000015</v>
+      </c>
+      <c r="O22" s="19">
+        <f t="shared" si="9"/>
+        <v>80900.800000000017</v>
+      </c>
+      <c r="P22" s="19">
+        <f t="shared" si="9"/>
+        <v>87444.000000000015</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="9"/>
+        <v>96047.370000000024</v>
+      </c>
+      <c r="R22" s="19">
+        <f t="shared" si="9"/>
+        <v>102312.00000000001</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2047,58 +2042,58 @@
         <v>18</v>
       </c>
       <c r="C23" s="81">
-        <f t="shared" ref="C23:H23" si="11">C22/C11</f>
+        <f t="shared" ref="C23:H23" si="10">C22/C11</f>
         <v>5.6610032271485276E-2</v>
       </c>
       <c r="D23" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.9316320790769775E-2</v>
       </c>
       <c r="E23" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.7295969656568824E-2</v>
       </c>
       <c r="F23" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.7006092254134028E-2</v>
       </c>
       <c r="G23" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.9283686161993263E-2</v>
       </c>
       <c r="H23" s="81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8.2177815219569517E-2</v>
       </c>
       <c r="I23" s="70">
-        <v>0.09</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="J23" s="66">
-        <v>8.5500000000000007E-2</v>
+        <v>8.6499999999999994E-2</v>
       </c>
       <c r="K23" s="66">
-        <v>8.2000000000000003E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="L23" s="66">
-        <v>8.2000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="M23" s="66">
-        <v>8.2000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="N23" s="66">
-        <v>8.2000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="O23" s="66">
-        <v>8.2000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="P23" s="66">
-        <v>8.2000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q23" s="66">
-        <v>8.2000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="R23" s="66">
-        <v>8.2000000000000003E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2111,15 +2106,15 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2145,44 +2140,44 @@
         <v>11891</v>
       </c>
       <c r="I25" s="73">
-        <f t="shared" ref="I25:R25" si="12">I26*I11</f>
+        <f t="shared" ref="I25:R25" si="11">I26*I11</f>
         <v>14012</v>
       </c>
-      <c r="J25" s="90">
-        <f t="shared" si="12"/>
-        <v>15046.32</v>
-      </c>
-      <c r="K25" s="90">
-        <f t="shared" si="12"/>
-        <v>16835.04</v>
-      </c>
-      <c r="L25" s="90">
-        <f t="shared" si="12"/>
-        <v>18880.320000000003</v>
-      </c>
-      <c r="M25" s="90">
-        <f t="shared" si="12"/>
-        <v>20760.720000000005</v>
-      </c>
-      <c r="N25" s="90">
-        <f t="shared" si="12"/>
-        <v>23244.000000000004</v>
-      </c>
-      <c r="O25" s="90">
-        <f t="shared" si="12"/>
-        <v>24270.240000000002</v>
-      </c>
-      <c r="P25" s="90">
-        <f t="shared" si="12"/>
-        <v>26233.200000000004</v>
-      </c>
-      <c r="Q25" s="90">
-        <f t="shared" si="12"/>
-        <v>28458.480000000007</v>
-      </c>
-      <c r="R25" s="90">
-        <f t="shared" si="12"/>
-        <v>30693.600000000006</v>
+      <c r="J25" s="12">
+        <f t="shared" si="11"/>
+        <v>14419.39</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="11"/>
+        <v>16133.58</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="11"/>
+        <v>18093.640000000003</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="11"/>
+        <v>19895.690000000002</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="11"/>
+        <v>22275.500000000004</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="11"/>
+        <v>23258.980000000003</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" si="11"/>
+        <v>24812.235000000008</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="11"/>
+        <v>26086.940000000002</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" si="11"/>
+        <v>26856.900000000005</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2191,58 +2186,58 @@
         <v>18</v>
       </c>
       <c r="C26" s="81">
-        <f t="shared" ref="C26:H26" si="13">C25/C11</f>
+        <f t="shared" ref="C26:H26" si="12">C25/C11</f>
         <v>2.0655999460267842E-2</v>
       </c>
       <c r="D26" s="81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.8618471619283171E-2</v>
       </c>
       <c r="E26" s="81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.8547564896870834E-2</v>
       </c>
       <c r="F26" s="81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.7271747689502258E-2</v>
       </c>
       <c r="G26" s="81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.8779452643767215E-2</v>
       </c>
       <c r="H26" s="81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.3135006410717866E-2</v>
       </c>
       <c r="I26" s="20">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J26" s="67">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="K26" s="67">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="L26" s="67">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="M26" s="67">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="N26" s="67">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="O26" s="67">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="P26" s="67">
-        <v>2.4E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="Q26" s="67">
-        <v>2.4E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="R26" s="67">
-        <v>2.4E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2255,15 +2250,15 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="73"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -2289,43 +2284,43 @@
         <v>1263</v>
       </c>
       <c r="I28" s="73">
-        <f t="shared" ref="I28:R28" si="14">I29*I11</f>
+        <f t="shared" ref="I28:R28" si="13">I29*I11</f>
         <v>560.48</v>
       </c>
-      <c r="J28" s="90">
-        <f t="shared" si="14"/>
+      <c r="J28" s="12">
+        <f t="shared" si="13"/>
         <v>626.93000000000006</v>
       </c>
-      <c r="K28" s="90">
-        <f t="shared" si="14"/>
+      <c r="K28" s="12">
+        <f t="shared" si="13"/>
         <v>701.46</v>
       </c>
-      <c r="L28" s="90">
-        <f t="shared" si="14"/>
+      <c r="L28" s="12">
+        <f t="shared" si="13"/>
         <v>786.68000000000018</v>
       </c>
-      <c r="M28" s="90">
-        <f t="shared" si="14"/>
+      <c r="M28" s="12">
+        <f t="shared" si="13"/>
         <v>865.03000000000009</v>
       </c>
-      <c r="N28" s="90">
-        <f t="shared" si="14"/>
+      <c r="N28" s="12">
+        <f t="shared" si="13"/>
         <v>968.50000000000011</v>
       </c>
-      <c r="O28" s="90">
-        <f t="shared" si="14"/>
+      <c r="O28" s="12">
+        <f t="shared" si="13"/>
         <v>1011.2600000000001</v>
       </c>
-      <c r="P28" s="90">
-        <f t="shared" si="14"/>
+      <c r="P28" s="12">
+        <f t="shared" si="13"/>
         <v>1093.0500000000002</v>
       </c>
-      <c r="Q28" s="90">
-        <f t="shared" si="14"/>
+      <c r="Q28" s="12">
+        <f t="shared" si="13"/>
         <v>1185.7700000000002</v>
       </c>
-      <c r="R28" s="90">
-        <f t="shared" si="14"/>
+      <c r="R28" s="12">
+        <f t="shared" si="13"/>
         <v>1278.9000000000003</v>
       </c>
     </row>
@@ -2335,27 +2330,27 @@
         <v>18</v>
       </c>
       <c r="C29" s="81">
-        <f t="shared" ref="C29:H29" si="15">C28/C11</f>
+        <f t="shared" ref="C29:H29" si="14">C28/C11</f>
         <v>1.2031529353558298E-3</v>
       </c>
       <c r="D29" s="81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.271002675117117E-3</v>
       </c>
       <c r="E29" s="81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7.1652134235461028E-4</v>
       </c>
       <c r="F29" s="81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>-1.9426830784533136E-4</v>
       </c>
       <c r="G29" s="81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.3196487180251244E-4</v>
       </c>
       <c r="H29" s="81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.4572797154769712E-3</v>
       </c>
       <c r="I29" s="20">
@@ -2398,16 +2393,16 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="91"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="25"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -2415,23 +2410,23 @@
         <v>13</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" ref="C31:G31" si="16">C19+C22+C25+C28</f>
+        <f t="shared" ref="C31:G31" si="15">C19+C22+C25+C28</f>
         <v>61826</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>81310</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>100445</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>129858</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>172599</v>
       </c>
       <c r="H31" s="12">
@@ -2439,44 +2434,44 @@
         <v>212904</v>
       </c>
       <c r="I31" s="73">
-        <f t="shared" ref="I31:R31" si="17">I19+I22+I25+I28</f>
-        <v>238764.48</v>
-      </c>
-      <c r="J31" s="90">
-        <f t="shared" si="17"/>
-        <v>264250.995</v>
-      </c>
-      <c r="K31" s="90">
-        <f t="shared" si="17"/>
-        <v>292508.82</v>
-      </c>
-      <c r="L31" s="90">
-        <f t="shared" si="17"/>
-        <v>317976.0560000001</v>
-      </c>
-      <c r="M31" s="90">
-        <f t="shared" si="17"/>
-        <v>355527.33000000013</v>
-      </c>
-      <c r="N31" s="90">
-        <f t="shared" si="17"/>
-        <v>392048.80000000005</v>
-      </c>
-      <c r="O31" s="90">
-        <f t="shared" si="17"/>
-        <v>422706.68000000005</v>
-      </c>
-      <c r="P31" s="90">
-        <f t="shared" si="17"/>
-        <v>455801.85000000009</v>
-      </c>
-      <c r="Q31" s="90">
-        <f t="shared" si="17"/>
-        <v>480236.85000000009</v>
-      </c>
-      <c r="R31" s="90">
-        <f t="shared" si="17"/>
-        <v>511560.00000000012</v>
+        <f t="shared" ref="I31:R31" si="16">I19+I22+I25+I28</f>
+        <v>232038.72</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="16"/>
+        <v>251085.46499999997</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="16"/>
+        <v>273569.40000000002</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="16"/>
+        <v>296578.36000000004</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="16"/>
+        <v>324386.25000000006</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="16"/>
+        <v>355439.50000000006</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="16"/>
+        <v>388323.84000000008</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="16"/>
+        <v>416124.13500000007</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" si="16"/>
+        <v>437549.13000000018</v>
+      </c>
+      <c r="R31" s="12">
+        <f t="shared" si="16"/>
+        <v>462961.8000000001</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2485,68 +2480,68 @@
         <v>18</v>
       </c>
       <c r="C32" s="81">
-        <f t="shared" ref="C32:H32" si="18">C31/C11</f>
+        <f t="shared" ref="C32:H32" si="17">C31/C11</f>
         <v>0.34759875411826879</v>
       </c>
       <c r="D32" s="81">
+        <f t="shared" si="17"/>
+        <v>0.34913928214112422</v>
+      </c>
+      <c r="E32" s="81">
+        <f t="shared" si="17"/>
+        <v>0.35806460812342705</v>
+      </c>
+      <c r="F32" s="81">
+        <f t="shared" si="17"/>
+        <v>0.33636391893572049</v>
+      </c>
+      <c r="G32" s="81">
+        <f t="shared" si="17"/>
+        <v>0.36737104690712652</v>
+      </c>
+      <c r="H32" s="81">
+        <f t="shared" si="17"/>
+        <v>0.4142238167410206</v>
+      </c>
+      <c r="I32" s="20">
+        <f t="shared" ref="I32:R32" si="18">I31/I11</f>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="J32" s="67">
         <f t="shared" si="18"/>
-        <v>0.34913928214112422</v>
-      </c>
-      <c r="E32" s="81">
+        <v>0.40049999999999997</v>
+      </c>
+      <c r="K32" s="67">
         <f t="shared" si="18"/>
-        <v>0.35806460812342705</v>
-      </c>
-      <c r="F32" s="81">
+        <v>0.39</v>
+      </c>
+      <c r="L32" s="67">
         <f t="shared" si="18"/>
-        <v>0.33636391893572049</v>
-      </c>
-      <c r="G32" s="81">
+        <v>0.377</v>
+      </c>
+      <c r="M32" s="67">
         <f t="shared" si="18"/>
-        <v>0.36737104690712652</v>
-      </c>
-      <c r="H32" s="81">
+        <v>0.375</v>
+      </c>
+      <c r="N32" s="67">
         <f t="shared" si="18"/>
-        <v>0.4142238167410206</v>
-      </c>
-      <c r="I32" s="20">
-        <f t="shared" ref="I32:R32" si="19">I31/I11</f>
-        <v>0.42600000000000005</v>
-      </c>
-      <c r="J32" s="67">
-        <f t="shared" si="19"/>
-        <v>0.42149999999999999</v>
-      </c>
-      <c r="K32" s="67">
-        <f t="shared" si="19"/>
-        <v>0.41700000000000004</v>
-      </c>
-      <c r="L32" s="67">
-        <f t="shared" si="19"/>
-        <v>0.40420000000000006</v>
-      </c>
-      <c r="M32" s="67">
-        <f t="shared" si="19"/>
-        <v>0.41100000000000009</v>
-      </c>
-      <c r="N32" s="67">
-        <f t="shared" si="19"/>
-        <v>0.40479999999999999</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="O32" s="67">
-        <f t="shared" si="19"/>
-        <v>0.41799999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.38400000000000006</v>
       </c>
       <c r="P32" s="67">
-        <f t="shared" si="19"/>
-        <v>0.41699999999999998</v>
+        <f t="shared" si="18"/>
+        <v>0.38069999999999998</v>
       </c>
       <c r="Q32" s="67">
-        <f t="shared" si="19"/>
-        <v>0.40500000000000003</v>
+        <f t="shared" si="18"/>
+        <v>0.36900000000000011</v>
       </c>
       <c r="R32" s="67">
-        <f t="shared" si="19"/>
-        <v>0.4</v>
+        <f t="shared" si="18"/>
+        <v>0.36199999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:86" x14ac:dyDescent="0.25">
@@ -2575,68 +2570,68 @@
         <v>14</v>
       </c>
       <c r="C34" s="12">
-        <f t="shared" ref="C34:R34" si="20">C16-C19-C22-C25-C28</f>
+        <f t="shared" ref="C34:R34" si="19">C16-C19-C22-C25-C28</f>
         <v>4106</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>12421</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>14541</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>22899</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>24879</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>12248</v>
       </c>
       <c r="I34" s="73">
-        <f t="shared" si="20"/>
-        <v>17206.736000000001</v>
-      </c>
-      <c r="J34" s="90">
-        <f t="shared" si="20"/>
-        <v>24826.427999999993</v>
-      </c>
-      <c r="K34" s="90">
-        <f t="shared" si="20"/>
-        <v>34932.707999999984</v>
-      </c>
-      <c r="L34" s="90">
-        <f t="shared" si="20"/>
-        <v>47043.464</v>
-      </c>
-      <c r="M34" s="90">
-        <f t="shared" si="20"/>
-        <v>56832.471000000034</v>
-      </c>
-      <c r="N34" s="90">
-        <f t="shared" si="20"/>
-        <v>76511.499999999985</v>
-      </c>
-      <c r="O34" s="90">
-        <f t="shared" si="20"/>
-        <v>77867.020000000019</v>
-      </c>
-      <c r="P34" s="90">
-        <f t="shared" si="20"/>
-        <v>90723.150000000038</v>
-      </c>
-      <c r="Q34" s="90">
-        <f t="shared" si="20"/>
-        <v>112648.15000000001</v>
-      </c>
-      <c r="R34" s="90">
-        <f t="shared" si="20"/>
-        <v>127890.00000000003</v>
+        <f t="shared" si="19"/>
+        <v>23932.495999999988</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" si="19"/>
+        <v>37991.958000000035</v>
+      </c>
+      <c r="K34" s="12">
+        <f t="shared" si="19"/>
+        <v>53872.128000000004</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" si="19"/>
+        <v>68441.160000000047</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="19"/>
+        <v>87973.551000000036</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="19"/>
+        <v>113120.79999999999</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="19"/>
+        <v>112249.86</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" si="19"/>
+        <v>130400.86500000001</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="19"/>
+        <v>155335.87</v>
+      </c>
+      <c r="R34" s="12">
+        <f t="shared" si="19"/>
+        <v>176488.20000000007</v>
       </c>
     </row>
     <row r="35" spans="1:86" x14ac:dyDescent="0.25">
@@ -2649,15 +2644,15 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="73"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -2687,39 +2682,39 @@
         <v>-2858.4480000000003</v>
       </c>
       <c r="J36" s="87">
-        <f t="shared" ref="J36:R36" si="21">J11*(-0.51%)</f>
+        <f t="shared" ref="J36:R36" si="20">J11*(-0.51%)</f>
         <v>-3197.3430000000003</v>
       </c>
       <c r="K36" s="87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-3577.4460000000004</v>
       </c>
       <c r="L36" s="87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-4012.0680000000007</v>
       </c>
       <c r="M36" s="87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-4411.6530000000012</v>
       </c>
       <c r="N36" s="87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-4939.3500000000013</v>
       </c>
       <c r="O36" s="87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-5157.4260000000013</v>
       </c>
       <c r="P36" s="87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-5574.5550000000012</v>
       </c>
       <c r="Q36" s="87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-6047.4270000000015</v>
       </c>
       <c r="R36" s="87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>-6522.3900000000012</v>
       </c>
     </row>
@@ -2733,15 +2728,6 @@
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="91"/>
     </row>
     <row r="38" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -2749,68 +2735,68 @@
         <v>16</v>
       </c>
       <c r="C38" s="12">
-        <f t="shared" ref="C38:H38" si="22">C16-C31+C36</f>
+        <f t="shared" ref="C38:H38" si="21">C16-C31+C36</f>
         <v>3806</v>
       </c>
       <c r="D38" s="12">
+        <f t="shared" si="21"/>
+        <v>11261</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="21"/>
+        <v>13976</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="21"/>
+        <v>24178</v>
+      </c>
+      <c r="G38" s="12">
+        <f t="shared" si="21"/>
+        <v>38151</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" si="21"/>
+        <v>-5936</v>
+      </c>
+      <c r="I38" s="73">
+        <f t="shared" ref="I38:R38" si="22">I16-I31+I36</f>
+        <v>21074.047999999984</v>
+      </c>
+      <c r="J38" s="12">
         <f t="shared" si="22"/>
-        <v>11261</v>
-      </c>
-      <c r="E38" s="12">
+        <v>34794.615000000042</v>
+      </c>
+      <c r="K38" s="12">
         <f t="shared" si="22"/>
-        <v>13976</v>
-      </c>
-      <c r="F38" s="12">
+        <v>50294.681999999964</v>
+      </c>
+      <c r="L38" s="12">
         <f t="shared" si="22"/>
-        <v>24178</v>
-      </c>
-      <c r="G38" s="12">
+        <v>64429.092000000033</v>
+      </c>
+      <c r="M38" s="12">
         <f t="shared" si="22"/>
-        <v>38151</v>
-      </c>
-      <c r="H38" s="12">
+        <v>83561.89800000003</v>
+      </c>
+      <c r="N38" s="12">
         <f t="shared" si="22"/>
-        <v>-5936</v>
-      </c>
-      <c r="I38" s="73">
-        <f t="shared" ref="I38:R38" si="23">I16-I31+I36</f>
-        <v>14348.287999999975</v>
-      </c>
-      <c r="J38" s="90">
-        <f t="shared" si="23"/>
-        <v>21629.085000000014</v>
-      </c>
-      <c r="K38" s="90">
-        <f t="shared" si="23"/>
-        <v>31355.261999999984</v>
-      </c>
-      <c r="L38" s="90">
-        <f t="shared" si="23"/>
-        <v>43031.395999999979</v>
-      </c>
-      <c r="M38" s="90">
-        <f t="shared" si="23"/>
-        <v>52420.817999999963</v>
-      </c>
-      <c r="N38" s="90">
-        <f t="shared" si="23"/>
-        <v>71572.149999999994</v>
-      </c>
-      <c r="O38" s="90">
-        <f t="shared" si="23"/>
-        <v>72709.594000000012</v>
-      </c>
-      <c r="P38" s="90">
-        <f t="shared" si="23"/>
-        <v>85148.595000000016</v>
-      </c>
-      <c r="Q38" s="90">
-        <f t="shared" si="23"/>
-        <v>106600.72300000003</v>
-      </c>
-      <c r="R38" s="90">
-        <f t="shared" si="23"/>
-        <v>121367.61</v>
+        <v>108181.44999999998</v>
+      </c>
+      <c r="O38" s="12">
+        <f t="shared" si="22"/>
+        <v>107092.43399999998</v>
+      </c>
+      <c r="P38" s="12">
+        <f t="shared" si="22"/>
+        <v>124826.31000000004</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="22"/>
+        <v>149288.44299999994</v>
+      </c>
+      <c r="R38" s="12">
+        <f t="shared" si="22"/>
+        <v>169965.81</v>
       </c>
     </row>
     <row r="39" spans="1:86" x14ac:dyDescent="0.25">
@@ -2823,15 +2809,14 @@
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="91"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -2839,68 +2824,68 @@
         <v>17</v>
       </c>
       <c r="C40" s="12">
-        <f t="shared" ref="C40:I40" si="24">C34</f>
+        <f t="shared" ref="C40:I40" si="23">C34</f>
         <v>4106</v>
       </c>
       <c r="D40" s="12">
+        <f t="shared" si="23"/>
+        <v>12421</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="23"/>
+        <v>14541</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="23"/>
+        <v>22899</v>
+      </c>
+      <c r="G40" s="12">
+        <f t="shared" si="23"/>
+        <v>24879</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" si="23"/>
+        <v>12248</v>
+      </c>
+      <c r="I40" s="73">
+        <f t="shared" si="23"/>
+        <v>23932.495999999988</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" ref="J40:R40" si="24">J34</f>
+        <v>37991.958000000035</v>
+      </c>
+      <c r="K40" s="12">
         <f t="shared" si="24"/>
-        <v>12421</v>
-      </c>
-      <c r="E40" s="12">
+        <v>53872.128000000004</v>
+      </c>
+      <c r="L40" s="12">
         <f t="shared" si="24"/>
-        <v>14541</v>
-      </c>
-      <c r="F40" s="12">
+        <v>68441.160000000047</v>
+      </c>
+      <c r="M40" s="12">
         <f t="shared" si="24"/>
-        <v>22899</v>
-      </c>
-      <c r="G40" s="12">
+        <v>87973.551000000036</v>
+      </c>
+      <c r="N40" s="12">
         <f t="shared" si="24"/>
-        <v>24879</v>
-      </c>
-      <c r="H40" s="12">
+        <v>113120.79999999999</v>
+      </c>
+      <c r="O40" s="12">
         <f t="shared" si="24"/>
-        <v>12248</v>
-      </c>
-      <c r="I40" s="73">
+        <v>112249.86</v>
+      </c>
+      <c r="P40" s="12">
         <f t="shared" si="24"/>
-        <v>17206.736000000001</v>
-      </c>
-      <c r="J40" s="90">
-        <f t="shared" ref="J40:R40" si="25">J34</f>
-        <v>24826.427999999993</v>
-      </c>
-      <c r="K40" s="90">
-        <f t="shared" si="25"/>
-        <v>34932.707999999984</v>
-      </c>
-      <c r="L40" s="90">
-        <f t="shared" si="25"/>
-        <v>47043.464</v>
-      </c>
-      <c r="M40" s="90">
-        <f t="shared" si="25"/>
-        <v>56832.471000000034</v>
-      </c>
-      <c r="N40" s="90">
-        <f t="shared" si="25"/>
-        <v>76511.499999999985</v>
-      </c>
-      <c r="O40" s="90">
-        <f t="shared" si="25"/>
-        <v>77867.020000000019</v>
-      </c>
-      <c r="P40" s="90">
-        <f t="shared" si="25"/>
-        <v>90723.150000000038</v>
-      </c>
-      <c r="Q40" s="90">
-        <f t="shared" si="25"/>
-        <v>112648.15000000001</v>
-      </c>
-      <c r="R40" s="90">
-        <f t="shared" si="25"/>
-        <v>127890.00000000003</v>
+        <v>130400.86500000001</v>
+      </c>
+      <c r="Q40" s="12">
+        <f t="shared" si="24"/>
+        <v>155335.87</v>
+      </c>
+      <c r="R40" s="12">
+        <f t="shared" si="24"/>
+        <v>176488.20000000007</v>
       </c>
     </row>
     <row r="41" spans="1:86" x14ac:dyDescent="0.25">
@@ -2909,68 +2894,68 @@
         <v>18</v>
       </c>
       <c r="C41" s="81">
-        <f t="shared" ref="C41:I41" si="26">C40/C11</f>
+        <f t="shared" ref="C41:I41" si="25">C40/C11</f>
         <v>2.3084794170892695E-2</v>
       </c>
       <c r="D41" s="81">
+        <f t="shared" si="25"/>
+        <v>5.3334879147397665E-2</v>
+      </c>
+      <c r="E41" s="81">
+        <f t="shared" si="25"/>
+        <v>5.1835506662579051E-2</v>
+      </c>
+      <c r="F41" s="81">
+        <f t="shared" si="25"/>
+        <v>5.9313999751336569E-2</v>
+      </c>
+      <c r="G41" s="81">
+        <f t="shared" si="25"/>
+        <v>5.2954097509269465E-2</v>
+      </c>
+      <c r="H41" s="81">
+        <f t="shared" si="25"/>
+        <v>2.3829581912242232E-2</v>
+      </c>
+      <c r="I41" s="70">
+        <f t="shared" si="25"/>
+        <v>4.2699999999999981E-2</v>
+      </c>
+      <c r="J41" s="66">
+        <f t="shared" ref="J41:R41" si="26">J40/J11</f>
+        <v>6.0600000000000057E-2</v>
+      </c>
+      <c r="K41" s="66">
         <f t="shared" si="26"/>
-        <v>5.3334879147397665E-2</v>
-      </c>
-      <c r="E41" s="81">
+        <v>7.6800000000000007E-2</v>
+      </c>
+      <c r="L41" s="66">
         <f t="shared" si="26"/>
-        <v>5.1835506662579051E-2</v>
-      </c>
-      <c r="F41" s="81">
+        <v>8.700000000000005E-2</v>
+      </c>
+      <c r="M41" s="66">
         <f t="shared" si="26"/>
-        <v>5.9313999751336569E-2</v>
-      </c>
-      <c r="G41" s="81">
+        <v>0.10170000000000003</v>
+      </c>
+      <c r="N41" s="66">
         <f t="shared" si="26"/>
-        <v>5.2954097509269465E-2</v>
-      </c>
-      <c r="H41" s="81">
+        <v>0.11679999999999997</v>
+      </c>
+      <c r="O41" s="66">
         <f t="shared" si="26"/>
-        <v>2.3829581912242232E-2</v>
-      </c>
-      <c r="I41" s="70">
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="P41" s="66">
         <f t="shared" si="26"/>
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="J41" s="66">
-        <f t="shared" ref="J41:R41" si="27">J40/J11</f>
-        <v>3.9599999999999989E-2</v>
-      </c>
-      <c r="K41" s="66">
-        <f t="shared" si="27"/>
-        <v>4.9799999999999976E-2</v>
-      </c>
-      <c r="L41" s="66">
-        <f t="shared" si="27"/>
-        <v>5.9799999999999992E-2</v>
-      </c>
-      <c r="M41" s="66">
-        <f t="shared" si="27"/>
-        <v>6.5700000000000036E-2</v>
-      </c>
-      <c r="N41" s="66">
-        <f t="shared" si="27"/>
-        <v>7.8999999999999973E-2</v>
-      </c>
-      <c r="O41" s="66">
-        <f t="shared" si="27"/>
-        <v>7.7000000000000013E-2</v>
-      </c>
-      <c r="P41" s="66">
-        <f t="shared" si="27"/>
-        <v>8.3000000000000018E-2</v>
+        <v>0.11929999999999998</v>
       </c>
       <c r="Q41" s="66">
-        <f t="shared" si="27"/>
-        <v>9.4999999999999987E-2</v>
+        <f t="shared" si="26"/>
+        <v>0.13099999999999998</v>
       </c>
       <c r="R41" s="66">
-        <f t="shared" si="27"/>
-        <v>0.1</v>
+        <f t="shared" si="26"/>
+        <v>0.13800000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:86" x14ac:dyDescent="0.25">
@@ -2982,15 +2967,11 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -3017,43 +2998,43 @@
       </c>
       <c r="I43" s="22">
         <f>I44*I40</f>
-        <v>3637.5039904</v>
-      </c>
-      <c r="J43" s="88">
-        <f t="shared" ref="J43:R43" si="28">J44*J40</f>
-        <v>4972.7335283999982</v>
-      </c>
-      <c r="K43" s="88">
-        <f t="shared" si="28"/>
-        <v>6909.689642399997</v>
-      </c>
-      <c r="L43" s="88">
-        <f t="shared" si="28"/>
-        <v>9770.9274728</v>
-      </c>
-      <c r="M43" s="88">
-        <f t="shared" si="28"/>
-        <v>12429.261407700007</v>
-      </c>
-      <c r="N43" s="88">
-        <f t="shared" si="28"/>
-        <v>16733.065049999997</v>
-      </c>
-      <c r="O43" s="88">
-        <f t="shared" si="28"/>
-        <v>17029.517274000005</v>
-      </c>
-      <c r="P43" s="88">
-        <f t="shared" si="28"/>
-        <v>19841.15290500001</v>
-      </c>
-      <c r="Q43" s="88">
-        <f t="shared" si="28"/>
-        <v>24636.150405000004</v>
-      </c>
-      <c r="R43" s="88">
-        <f t="shared" si="28"/>
-        <v>27969.543000000009</v>
+        <v>-5059.3296543999977</v>
+      </c>
+      <c r="J43" s="19">
+        <f t="shared" ref="J43:R43" si="27">J44*J40</f>
+        <v>-7609.789187400007</v>
+      </c>
+      <c r="K43" s="19">
+        <f t="shared" si="27"/>
+        <v>-10655.906918400002</v>
+      </c>
+      <c r="L43" s="19">
+        <f t="shared" si="27"/>
+        <v>-14215.228932000009</v>
+      </c>
+      <c r="M43" s="19">
+        <f t="shared" si="27"/>
+        <v>-19239.815603700008</v>
+      </c>
+      <c r="N43" s="19">
+        <f t="shared" si="27"/>
+        <v>-24739.518959999998</v>
+      </c>
+      <c r="O43" s="19">
+        <f t="shared" si="27"/>
+        <v>-24549.044382</v>
+      </c>
+      <c r="P43" s="19">
+        <f t="shared" si="27"/>
+        <v>-28518.669175500003</v>
+      </c>
+      <c r="Q43" s="19">
+        <f t="shared" si="27"/>
+        <v>-33971.954768999996</v>
+      </c>
+      <c r="R43" s="19">
+        <f t="shared" si="27"/>
+        <v>-38597.969340000018</v>
       </c>
     </row>
     <row r="44" spans="1:86" x14ac:dyDescent="0.25">
@@ -3062,58 +3043,58 @@
         <v>20</v>
       </c>
       <c r="C44" s="82">
-        <f t="shared" ref="C44:H44" si="29">C43/C40</f>
+        <f t="shared" ref="C44:H44" si="28">C43/C40</f>
         <v>-0.18728689722357525</v>
       </c>
       <c r="D44" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-9.6369052411239026E-2</v>
       </c>
       <c r="E44" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-0.16326249914036173</v>
       </c>
       <c r="F44" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-0.12502729376828683</v>
       </c>
       <c r="G44" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-0.1925720487157844</v>
       </c>
       <c r="H44" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.2626551273677335</v>
       </c>
       <c r="I44" s="72">
-        <v>0.2114</v>
-      </c>
-      <c r="J44" s="92">
-        <v>0.20030000000000001</v>
-      </c>
-      <c r="K44" s="92">
-        <v>0.1978</v>
-      </c>
-      <c r="L44" s="92">
-        <v>0.2077</v>
-      </c>
-      <c r="M44" s="92">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="N44" s="92">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="O44" s="92">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="P44" s="92">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="Q44" s="92">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="R44" s="92">
-        <v>0.21870000000000001</v>
+        <v>-0.2114</v>
+      </c>
+      <c r="J44" s="88">
+        <v>-0.20030000000000001</v>
+      </c>
+      <c r="K44" s="88">
+        <v>-0.1978</v>
+      </c>
+      <c r="L44" s="88">
+        <v>-0.2077</v>
+      </c>
+      <c r="M44" s="88">
+        <v>-0.21870000000000001</v>
+      </c>
+      <c r="N44" s="88">
+        <v>-0.21870000000000001</v>
+      </c>
+      <c r="O44" s="88">
+        <v>-0.21870000000000001</v>
+      </c>
+      <c r="P44" s="88">
+        <v>-0.21870000000000001</v>
+      </c>
+      <c r="Q44" s="88">
+        <v>-0.21870000000000001</v>
+      </c>
+      <c r="R44" s="88">
+        <v>-0.21870000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:86" x14ac:dyDescent="0.25">
@@ -3418,43 +3399,43 @@
       </c>
       <c r="I47" s="22">
         <f>I48*I11</f>
-        <v>46190</v>
-      </c>
-      <c r="J47" s="88">
-        <f t="shared" ref="J47:R47" si="30">J48*J11</f>
-        <v>51530</v>
-      </c>
-      <c r="K47" s="88">
-        <f t="shared" si="30"/>
-        <v>56850</v>
-      </c>
-      <c r="L47" s="88">
-        <f t="shared" si="30"/>
-        <v>63750.000000000007</v>
-      </c>
-      <c r="M47" s="88">
-        <f t="shared" si="30"/>
-        <v>69320</v>
-      </c>
-      <c r="N47" s="88">
-        <f t="shared" si="30"/>
-        <v>73540</v>
-      </c>
-      <c r="O47" s="88">
-        <f t="shared" si="30"/>
-        <v>70788.200000000012</v>
-      </c>
-      <c r="P47" s="88">
-        <f t="shared" si="30"/>
-        <v>71002.961157368045</v>
-      </c>
-      <c r="Q47" s="88">
-        <f t="shared" si="30"/>
-        <v>77025.919447026492</v>
-      </c>
-      <c r="R47" s="88">
-        <f t="shared" si="30"/>
-        <v>83075.510748966641</v>
+        <v>47270</v>
+      </c>
+      <c r="J47" s="22">
+        <f t="shared" ref="J47:R47" si="29">J48*J11</f>
+        <v>52230</v>
+      </c>
+      <c r="K47" s="22">
+        <f t="shared" si="29"/>
+        <v>57970</v>
+      </c>
+      <c r="L47" s="22">
+        <f t="shared" si="29"/>
+        <v>62170</v>
+      </c>
+      <c r="M47" s="22">
+        <f t="shared" si="29"/>
+        <v>66330</v>
+      </c>
+      <c r="N47" s="22">
+        <f t="shared" si="29"/>
+        <v>70500</v>
+      </c>
+      <c r="O47" s="22">
+        <f t="shared" si="29"/>
+        <v>64250.000000000007</v>
+      </c>
+      <c r="P47" s="22">
+        <f t="shared" si="29"/>
+        <v>67410</v>
+      </c>
+      <c r="Q47" s="22">
+        <f t="shared" si="29"/>
+        <v>62870</v>
+      </c>
+      <c r="R47" s="22">
+        <f t="shared" si="29"/>
+        <v>65610</v>
       </c>
     </row>
     <row r="48" spans="1:86" x14ac:dyDescent="0.25">
@@ -3463,58 +3444,58 @@
         <v>18</v>
       </c>
       <c r="C48" s="81">
-        <f t="shared" ref="C48:H48" si="31">C47/C11</f>
+        <f t="shared" ref="C48:R48" si="30">C47/C11</f>
         <v>6.4531726130907532E-2</v>
       </c>
       <c r="D48" s="81">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>6.5873148780309768E-2</v>
       </c>
       <c r="E48" s="81">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>7.7673052380918428E-2</v>
       </c>
       <c r="F48" s="81">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>6.5222346553939242E-2</v>
       </c>
       <c r="G48" s="81">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>7.3289458560901785E-2</v>
       </c>
       <c r="H48" s="81">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>8.1561063303650122E-2</v>
       </c>
-      <c r="I48" s="21">
-        <v>8.2411504424778764E-2</v>
-      </c>
-      <c r="J48" s="53">
-        <v>8.2194184358700337E-2</v>
-      </c>
-      <c r="K48" s="53">
-        <v>8.1045248481738094E-2</v>
-      </c>
-      <c r="L48" s="53">
-        <v>8.103676208877815E-2</v>
-      </c>
-      <c r="M48" s="53">
-        <v>8.0135949042229732E-2</v>
-      </c>
-      <c r="N48" s="53">
-        <v>7.5931853381517797E-2</v>
-      </c>
-      <c r="O48" s="53">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P48" s="53">
-        <v>6.4958566540751134E-2</v>
-      </c>
-      <c r="Q48" s="53">
-        <v>6.4958566540751134E-2</v>
-      </c>
-      <c r="R48" s="53">
-        <v>6.4958566540751134E-2</v>
+      <c r="I48" s="81">
+        <v>8.4338424207821866E-2</v>
+      </c>
+      <c r="J48" s="81">
+        <v>8.3310736445855196E-2</v>
+      </c>
+      <c r="K48" s="81">
+        <v>8.2641918284720436E-2</v>
+      </c>
+      <c r="L48" s="81">
+        <v>7.9028321553871961E-2</v>
+      </c>
+      <c r="M48" s="81">
+        <v>7.6679421522952956E-2</v>
+      </c>
+      <c r="N48" s="81">
+        <v>7.2792978833247285E-2</v>
+      </c>
+      <c r="O48" s="81">
+        <v>6.3534600399501609E-2</v>
+      </c>
+      <c r="P48" s="81">
+        <v>6.1671469740633991E-2</v>
+      </c>
+      <c r="Q48" s="81">
+        <v>5.3020400246253478E-2</v>
+      </c>
+      <c r="R48" s="81">
+        <v>5.1301900070372969E-2</v>
       </c>
     </row>
     <row r="49" spans="1:86" x14ac:dyDescent="0.25">
@@ -3526,15 +3507,15 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="89"/>
-      <c r="Q49" s="89"/>
-      <c r="R49" s="89"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -3561,43 +3542,43 @@
       </c>
       <c r="I50" s="22">
         <f>I51*I11</f>
-        <v>-56710</v>
-      </c>
-      <c r="J50" s="88">
-        <f t="shared" ref="J50:R50" si="32">J51*J11</f>
-        <v>-59570</v>
-      </c>
-      <c r="K50" s="88">
-        <f t="shared" si="32"/>
-        <v>-61190</v>
-      </c>
-      <c r="L50" s="88">
-        <f t="shared" si="32"/>
-        <v>-58640</v>
-      </c>
-      <c r="M50" s="88">
-        <f t="shared" si="32"/>
-        <v>-60149.999999999993</v>
-      </c>
-      <c r="N50" s="88">
-        <f t="shared" si="32"/>
-        <v>-61820</v>
-      </c>
-      <c r="O50" s="88">
-        <f t="shared" si="32"/>
-        <v>-64549.399277232835</v>
-      </c>
-      <c r="P50" s="88">
-        <f t="shared" si="32"/>
-        <v>-69770.109447599389</v>
-      </c>
-      <c r="Q50" s="88">
-        <f t="shared" si="32"/>
+        <v>-57350</v>
+      </c>
+      <c r="J50" s="22">
+        <f t="shared" ref="J50:R50" si="31">J51*J11</f>
+        <v>-60320</v>
+      </c>
+      <c r="K50" s="22">
+        <f t="shared" si="31"/>
+        <v>-63540</v>
+      </c>
+      <c r="L50" s="22">
+        <f t="shared" si="31"/>
+        <v>-64169.999999999993</v>
+      </c>
+      <c r="M50" s="22">
+        <f t="shared" si="31"/>
+        <v>-66450</v>
+      </c>
+      <c r="N50" s="22">
+        <f t="shared" si="31"/>
+        <v>-63590</v>
+      </c>
+      <c r="O50" s="22">
+        <f t="shared" si="31"/>
+        <v>-68150</v>
+      </c>
+      <c r="P50" s="22">
+        <f t="shared" si="31"/>
+        <v>-69850</v>
+      </c>
+      <c r="Q50" s="22">
+        <f t="shared" si="31"/>
         <v>-71600</v>
       </c>
-      <c r="R50" s="88">
-        <f t="shared" si="32"/>
-        <v>-77223.441308179492</v>
+      <c r="R50" s="22">
+        <f t="shared" si="31"/>
+        <v>-73390</v>
       </c>
     </row>
     <row r="51" spans="1:86" x14ac:dyDescent="0.25">
@@ -3606,58 +3587,58 @@
         <v>18</v>
       </c>
       <c r="C51" s="81">
-        <f t="shared" ref="C51:H51" si="33">C50/C11</f>
+        <f t="shared" ref="C51:R51" si="32">C50/C11</f>
         <v>-6.7213520290555814E-2</v>
       </c>
       <c r="D51" s="81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>-5.7654570671613274E-2</v>
       </c>
       <c r="E51" s="81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>-6.0105802753438235E-2</v>
       </c>
       <c r="F51" s="81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>-0.10397239835882134</v>
       </c>
       <c r="G51" s="81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>-0.12994921480901278</v>
       </c>
       <c r="H51" s="81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>-0.12382705264571008</v>
       </c>
-      <c r="I51" s="21">
-        <v>-0.10118113045960606</v>
-      </c>
-      <c r="J51" s="53">
-        <v>-9.501858261687908E-2</v>
-      </c>
-      <c r="K51" s="53">
-        <v>-8.7232343968294698E-2</v>
-      </c>
-      <c r="L51" s="53">
-        <v>-7.4541109472720787E-2</v>
-      </c>
-      <c r="M51" s="53">
-        <v>-6.9535160630267143E-2</v>
-      </c>
-      <c r="N51" s="53">
-        <v>-6.3830665978316978E-2</v>
-      </c>
-      <c r="O51" s="53">
-        <v>-6.3830665978316978E-2</v>
-      </c>
-      <c r="P51" s="53">
-        <v>-6.3830665978316978E-2</v>
-      </c>
-      <c r="Q51" s="53">
+      <c r="I51" s="81">
+        <v>-0.10232300884955753</v>
+      </c>
+      <c r="J51" s="81">
+        <v>-9.6214888424545009E-2</v>
+      </c>
+      <c r="K51" s="81">
+        <v>-9.0582499358480881E-2</v>
+      </c>
+      <c r="L51" s="81">
+        <v>-8.1570651344892442E-2</v>
+      </c>
+      <c r="M51" s="81">
+        <v>-7.6818145035432286E-2</v>
+      </c>
+      <c r="N51" s="81">
+        <v>-6.5658234383066588E-2</v>
+      </c>
+      <c r="O51" s="81">
+        <v>-6.7391175365385747E-2</v>
+      </c>
+      <c r="P51" s="81">
+        <v>-6.3903755546406829E-2</v>
+      </c>
+      <c r="Q51" s="81">
         <v>-6.0382704909046431E-2</v>
       </c>
-      <c r="R51" s="53">
-        <v>-6.0382704909046431E-2</v>
+      <c r="R51" s="81">
+        <v>-5.7385252951755401E-2</v>
       </c>
     </row>
     <row r="52" spans="1:86" x14ac:dyDescent="0.25">
@@ -3669,15 +3650,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="89"/>
-      <c r="Q52" s="91"/>
-      <c r="R52" s="91"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -3703,44 +3682,44 @@
         <v>-20886</v>
       </c>
       <c r="I53" s="22">
-        <f t="shared" ref="I53:R53" si="34">I54*I11</f>
-        <v>-16814.399999999998</v>
-      </c>
-      <c r="J53" s="88">
-        <f t="shared" si="34"/>
-        <v>-12538.6</v>
-      </c>
-      <c r="K53" s="88">
-        <f t="shared" si="34"/>
-        <v>-14029.2</v>
-      </c>
-      <c r="L53" s="88">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="I53:R53" si="33">I54*I11</f>
+        <v>-22419.200000000001</v>
+      </c>
+      <c r="J53" s="19">
+        <f t="shared" si="33"/>
+        <v>-18807.899999999998</v>
+      </c>
+      <c r="K53" s="19">
+        <f t="shared" si="33"/>
+        <v>-21043.8</v>
+      </c>
+      <c r="L53" s="19">
+        <f t="shared" si="33"/>
         <v>-15733.600000000002</v>
       </c>
-      <c r="M53" s="88">
-        <f t="shared" si="34"/>
+      <c r="M53" s="19">
+        <f t="shared" si="33"/>
         <v>-17300.600000000002</v>
       </c>
-      <c r="N53" s="88">
-        <f t="shared" si="34"/>
-        <v>-19370.000000000004</v>
-      </c>
-      <c r="O53" s="88">
-        <f t="shared" si="34"/>
-        <v>-20225.200000000004</v>
-      </c>
-      <c r="P53" s="88">
-        <f t="shared" si="34"/>
-        <v>-21861.000000000004</v>
-      </c>
-      <c r="Q53" s="88">
-        <f t="shared" si="34"/>
-        <v>-23715.400000000005</v>
-      </c>
-      <c r="R53" s="88">
-        <f t="shared" si="34"/>
-        <v>-25578.000000000004</v>
+      <c r="N53" s="19">
+        <f t="shared" si="33"/>
+        <v>-9685.0000000000018</v>
+      </c>
+      <c r="O53" s="19">
+        <f t="shared" si="33"/>
+        <v>-10112.600000000002</v>
+      </c>
+      <c r="P53" s="19">
+        <f t="shared" si="33"/>
+        <v>-5465.2500000000009</v>
+      </c>
+      <c r="Q53" s="19">
+        <f t="shared" si="33"/>
+        <v>-5928.8500000000013</v>
+      </c>
+      <c r="R53" s="19">
+        <f t="shared" si="33"/>
+        <v>-6394.5000000000009</v>
       </c>
     </row>
     <row r="54" spans="1:86" x14ac:dyDescent="0.25">
@@ -3749,58 +3728,58 @@
         <v>18</v>
       </c>
       <c r="C54" s="81">
-        <f t="shared" ref="C54:H54" si="35">C53/C11</f>
+        <f t="shared" ref="C54:H54" si="34">C53/C11</f>
         <v>-1.3605748147481813E-3</v>
       </c>
       <c r="D54" s="81">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-4.4785668586052466E-3</v>
       </c>
       <c r="E54" s="81">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-8.6909404609977117E-3</v>
       </c>
       <c r="F54" s="81">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>3.4919080774172155E-2</v>
       </c>
       <c r="G54" s="81">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-4.1741340337404377E-2</v>
       </c>
       <c r="H54" s="81">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>-4.0635585223635799E-2</v>
       </c>
       <c r="I54" s="75">
+        <v>-0.04</v>
+      </c>
+      <c r="J54" s="89">
         <v>-0.03</v>
       </c>
-      <c r="J54" s="93">
+      <c r="K54" s="89">
+        <v>-0.03</v>
+      </c>
+      <c r="L54" s="89">
         <v>-0.02</v>
       </c>
-      <c r="K54" s="93">
+      <c r="M54" s="89">
         <v>-0.02</v>
       </c>
-      <c r="L54" s="93">
-        <v>-0.02</v>
-      </c>
-      <c r="M54" s="93">
-        <v>-0.02</v>
-      </c>
-      <c r="N54" s="93">
-        <v>-0.02</v>
-      </c>
-      <c r="O54" s="93">
-        <v>-0.02</v>
-      </c>
-      <c r="P54" s="93">
-        <v>-0.02</v>
-      </c>
-      <c r="Q54" s="93">
-        <v>-0.02</v>
-      </c>
-      <c r="R54" s="93">
-        <v>-0.02</v>
+      <c r="N54" s="89">
+        <v>-0.01</v>
+      </c>
+      <c r="O54" s="89">
+        <v>-0.01</v>
+      </c>
+      <c r="P54" s="89">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="Q54" s="89">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="R54" s="89">
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:86" x14ac:dyDescent="0.25">
@@ -3813,15 +3792,14 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="89"/>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="91"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -3829,68 +3807,68 @@
         <v>25</v>
       </c>
       <c r="C56" s="12">
-        <f t="shared" ref="C56:H56" si="36">C40-C43</f>
-        <v>4875</v>
+        <f t="shared" ref="C56:G56" si="35">C40+C43</f>
+        <v>3337</v>
       </c>
       <c r="D56" s="12">
+        <f t="shared" si="35"/>
+        <v>11224</v>
+      </c>
+      <c r="E56" s="12">
+        <f t="shared" si="35"/>
+        <v>12167</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" si="35"/>
+        <v>20036</v>
+      </c>
+      <c r="G56" s="12">
+        <f t="shared" si="35"/>
+        <v>20088</v>
+      </c>
+      <c r="H56" s="12">
+        <f>H40+H43</f>
+        <v>15465</v>
+      </c>
+      <c r="I56" s="12">
+        <f t="shared" ref="I56:R56" si="36">I40+I43</f>
+        <v>18873.166345599991</v>
+      </c>
+      <c r="J56" s="12">
         <f t="shared" si="36"/>
-        <v>13618</v>
-      </c>
-      <c r="E56" s="12">
+        <v>30382.16881260003</v>
+      </c>
+      <c r="K56" s="12">
         <f t="shared" si="36"/>
-        <v>16915</v>
-      </c>
-      <c r="F56" s="12">
+        <v>43216.221081600001</v>
+      </c>
+      <c r="L56" s="12">
         <f t="shared" si="36"/>
-        <v>25762</v>
-      </c>
-      <c r="G56" s="12">
+        <v>54225.931068000034</v>
+      </c>
+      <c r="M56" s="12">
         <f t="shared" si="36"/>
-        <v>29670</v>
-      </c>
-      <c r="H56" s="12">
-        <f>H40-H43</f>
-        <v>9031</v>
-      </c>
-      <c r="I56" s="73">
-        <f t="shared" ref="I56:R56" si="37">I40-I43</f>
-        <v>13569.2320096</v>
-      </c>
-      <c r="J56" s="90">
-        <f t="shared" si="37"/>
-        <v>19853.694471599993</v>
-      </c>
-      <c r="K56" s="90">
-        <f t="shared" si="37"/>
-        <v>28023.018357599987</v>
-      </c>
-      <c r="L56" s="90">
-        <f t="shared" si="37"/>
-        <v>37272.536527199998</v>
-      </c>
-      <c r="M56" s="90">
-        <f t="shared" si="37"/>
-        <v>44403.209592300031</v>
-      </c>
-      <c r="N56" s="90">
-        <f t="shared" si="37"/>
-        <v>59778.434949999988</v>
-      </c>
-      <c r="O56" s="90">
-        <f t="shared" si="37"/>
-        <v>60837.502726000013</v>
-      </c>
-      <c r="P56" s="90">
-        <f t="shared" si="37"/>
-        <v>70881.997095000028</v>
-      </c>
-      <c r="Q56" s="90">
-        <f t="shared" si="37"/>
-        <v>88011.999595000001</v>
-      </c>
-      <c r="R56" s="90">
-        <f t="shared" si="37"/>
-        <v>99920.457000000024</v>
+        <v>68733.735396300035</v>
+      </c>
+      <c r="N56" s="12">
+        <f t="shared" si="36"/>
+        <v>88381.281039999987</v>
+      </c>
+      <c r="O56" s="12">
+        <f t="shared" si="36"/>
+        <v>87700.815617999993</v>
+      </c>
+      <c r="P56" s="12">
+        <f t="shared" si="36"/>
+        <v>101882.1958245</v>
+      </c>
+      <c r="Q56" s="12">
+        <f t="shared" si="36"/>
+        <v>121363.91523099999</v>
+      </c>
+      <c r="R56" s="12">
+        <f t="shared" si="36"/>
+        <v>137890.23066000006</v>
       </c>
     </row>
     <row r="57" spans="1:86" x14ac:dyDescent="0.25">
@@ -3919,31 +3897,31 @@
       <c r="I57" s="73">
         <v>3.3333333333333299</v>
       </c>
-      <c r="J57" s="90">
+      <c r="J57" s="12">
         <v>3.9047619047619002</v>
       </c>
-      <c r="K57" s="90">
+      <c r="K57" s="12">
         <v>4.4761904761904798</v>
       </c>
-      <c r="L57" s="90">
+      <c r="L57" s="12">
         <v>5.0476190476190501</v>
       </c>
-      <c r="M57" s="90">
+      <c r="M57" s="12">
         <v>5.6190476190476204</v>
       </c>
-      <c r="N57" s="90">
+      <c r="N57" s="12">
         <v>6.1904761904761898</v>
       </c>
-      <c r="O57" s="90">
+      <c r="O57" s="12">
         <v>6.7619047619047601</v>
       </c>
-      <c r="P57" s="90">
+      <c r="P57" s="12">
         <v>7.3333333333333401</v>
       </c>
-      <c r="Q57" s="90">
+      <c r="Q57" s="12">
         <v>7.9047619047619104</v>
       </c>
-      <c r="R57" s="90">
+      <c r="R57" s="12">
         <v>8.4761904761904798</v>
       </c>
     </row>
@@ -3953,23 +3931,23 @@
         <v>26</v>
       </c>
       <c r="C58" s="12">
-        <f t="shared" ref="C58:G58" si="38">C38+C43+C57</f>
+        <f t="shared" ref="C58:G58" si="37">C38+C43+C57</f>
         <v>3033</v>
       </c>
       <c r="D58" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>10073</v>
       </c>
       <c r="E58" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>11588</v>
       </c>
       <c r="F58" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>21331</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>33364</v>
       </c>
       <c r="H58" s="12">
@@ -3977,316 +3955,316 @@
         <v>-2722</v>
       </c>
       <c r="I58" s="73">
-        <f t="shared" ref="I58:R58" si="39">I38+I43+I57</f>
-        <v>17989.125323733308</v>
-      </c>
-      <c r="J58" s="90">
-        <f t="shared" si="39"/>
-        <v>26605.723290304777</v>
-      </c>
-      <c r="K58" s="90">
-        <f t="shared" si="39"/>
-        <v>38269.427832876172</v>
-      </c>
-      <c r="L58" s="90">
-        <f t="shared" si="39"/>
-        <v>52807.371091847599</v>
-      </c>
-      <c r="M58" s="90">
-        <f t="shared" si="39"/>
-        <v>64855.69845531902</v>
-      </c>
-      <c r="N58" s="90">
-        <f t="shared" si="39"/>
-        <v>88311.405526190472</v>
-      </c>
-      <c r="O58" s="90">
-        <f t="shared" si="39"/>
-        <v>89745.873178761933</v>
-      </c>
-      <c r="P58" s="90">
-        <f t="shared" si="39"/>
-        <v>104997.08123833335</v>
-      </c>
-      <c r="Q58" s="90">
-        <f t="shared" si="39"/>
-        <v>131244.77816690478</v>
-      </c>
-      <c r="R58" s="90">
-        <f t="shared" si="39"/>
-        <v>149345.6291904762</v>
+        <f>I38+I43+I57</f>
+        <v>16018.051678933321</v>
+      </c>
+      <c r="J58" s="12">
+        <f t="shared" ref="I58:R58" si="38">J38+J43+J57</f>
+        <v>27188.7305745048</v>
+      </c>
+      <c r="K58" s="12">
+        <f t="shared" si="38"/>
+        <v>39643.251272076152</v>
+      </c>
+      <c r="L58" s="12">
+        <f t="shared" si="38"/>
+        <v>50218.910687047639</v>
+      </c>
+      <c r="M58" s="12">
+        <f t="shared" si="38"/>
+        <v>64327.701443919068</v>
+      </c>
+      <c r="N58" s="12">
+        <f t="shared" si="38"/>
+        <v>83448.121516190455</v>
+      </c>
+      <c r="O58" s="12">
+        <f t="shared" si="38"/>
+        <v>82550.151522761895</v>
+      </c>
+      <c r="P58" s="12">
+        <f t="shared" si="38"/>
+        <v>96314.974157833363</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" si="38"/>
+        <v>115324.3929929047</v>
+      </c>
+      <c r="R58" s="12">
+        <f t="shared" si="38"/>
+        <v>131376.31685047617</v>
       </c>
       <c r="S58" s="65">
         <f>R58*(1+$E$6)</f>
-        <v>153825.99806619048</v>
+        <v>136631.36952449521</v>
       </c>
       <c r="T58" s="65">
-        <f t="shared" ref="T58:CE58" si="40">S58*(1+$E$6)</f>
-        <v>158440.77800817622</v>
+        <f t="shared" ref="T58:CE58" si="39">S58*(1+$E$6)</f>
+        <v>142096.62430547504</v>
       </c>
       <c r="U58" s="65">
+        <f t="shared" si="39"/>
+        <v>147780.48927769405</v>
+      </c>
+      <c r="V58" s="65">
+        <f t="shared" si="39"/>
+        <v>153691.70884880182</v>
+      </c>
+      <c r="W58" s="65">
+        <f t="shared" si="39"/>
+        <v>159839.37720275391</v>
+      </c>
+      <c r="X58" s="65">
+        <f t="shared" si="39"/>
+        <v>166232.95229086408</v>
+      </c>
+      <c r="Y58" s="65">
+        <f t="shared" si="39"/>
+        <v>172882.27038249865</v>
+      </c>
+      <c r="Z58" s="65">
+        <f t="shared" si="39"/>
+        <v>179797.56119779861</v>
+      </c>
+      <c r="AA58" s="65">
+        <f t="shared" si="39"/>
+        <v>186989.46364571055</v>
+      </c>
+      <c r="AB58" s="65">
+        <f t="shared" si="39"/>
+        <v>194469.04219153899</v>
+      </c>
+      <c r="AC58" s="65">
+        <f t="shared" si="39"/>
+        <v>202247.80387920057</v>
+      </c>
+      <c r="AD58" s="65">
+        <f t="shared" si="39"/>
+        <v>210337.71603436861</v>
+      </c>
+      <c r="AE58" s="65">
+        <f t="shared" si="39"/>
+        <v>218751.22467574337</v>
+      </c>
+      <c r="AF58" s="65">
+        <f t="shared" si="39"/>
+        <v>227501.27366277311</v>
+      </c>
+      <c r="AG58" s="65">
+        <f t="shared" si="39"/>
+        <v>236601.32460928403</v>
+      </c>
+      <c r="AH58" s="65">
+        <f t="shared" si="39"/>
+        <v>246065.3775936554</v>
+      </c>
+      <c r="AI58" s="65">
+        <f t="shared" si="39"/>
+        <v>255907.99269740161</v>
+      </c>
+      <c r="AJ58" s="65">
+        <f t="shared" si="39"/>
+        <v>266144.31240529771</v>
+      </c>
+      <c r="AK58" s="65">
+        <f t="shared" si="39"/>
+        <v>276790.08490150963</v>
+      </c>
+      <c r="AL58" s="65">
+        <f t="shared" si="39"/>
+        <v>287861.68829757004</v>
+      </c>
+      <c r="AM58" s="65">
+        <f t="shared" si="39"/>
+        <v>299376.15582947287</v>
+      </c>
+      <c r="AN58" s="65">
+        <f t="shared" si="39"/>
+        <v>311351.20206265181</v>
+      </c>
+      <c r="AO58" s="65">
+        <f t="shared" si="39"/>
+        <v>323805.25014515792</v>
+      </c>
+      <c r="AP58" s="65">
+        <f t="shared" si="39"/>
+        <v>336757.46015096427</v>
+      </c>
+      <c r="AQ58" s="65">
+        <f t="shared" si="39"/>
+        <v>350227.75855700288</v>
+      </c>
+      <c r="AR58" s="65">
+        <f t="shared" si="39"/>
+        <v>364236.868899283</v>
+      </c>
+      <c r="AS58" s="65">
+        <f t="shared" si="39"/>
+        <v>378806.34365525434</v>
+      </c>
+      <c r="AT58" s="65">
+        <f t="shared" si="39"/>
+        <v>393958.59740146453</v>
+      </c>
+      <c r="AU58" s="65">
+        <f t="shared" si="39"/>
+        <v>409716.94129752315</v>
+      </c>
+      <c r="AV58" s="65">
+        <f t="shared" si="39"/>
+        <v>426105.61894942407</v>
+      </c>
+      <c r="AW58" s="65">
+        <f t="shared" si="39"/>
+        <v>443149.84370740107</v>
+      </c>
+      <c r="AX58" s="65">
+        <f t="shared" si="39"/>
+        <v>460875.83745569712</v>
+      </c>
+      <c r="AY58" s="65">
+        <f t="shared" si="39"/>
+        <v>479310.87095392501</v>
+      </c>
+      <c r="AZ58" s="65">
+        <f t="shared" si="39"/>
+        <v>498483.30579208204</v>
+      </c>
+      <c r="BA58" s="65">
+        <f t="shared" si="39"/>
+        <v>518422.63802376535</v>
+      </c>
+      <c r="BB58" s="65">
+        <f t="shared" si="39"/>
+        <v>539159.54354471597</v>
+      </c>
+      <c r="BC58" s="65">
+        <f t="shared" si="39"/>
+        <v>560725.92528650467</v>
+      </c>
+      <c r="BD58" s="65">
+        <f t="shared" si="39"/>
+        <v>583154.96229796484</v>
+      </c>
+      <c r="BE58" s="65">
+        <f t="shared" si="39"/>
+        <v>606481.16078988346</v>
+      </c>
+      <c r="BF58" s="65">
+        <f t="shared" si="39"/>
+        <v>630740.40722147888</v>
+      </c>
+      <c r="BG58" s="65">
+        <f t="shared" si="39"/>
+        <v>655970.02351033804</v>
+      </c>
+      <c r="BH58" s="65">
+        <f t="shared" si="39"/>
+        <v>682208.82445075153</v>
+      </c>
+      <c r="BI58" s="65">
+        <f t="shared" si="39"/>
+        <v>709497.17742878164</v>
+      </c>
+      <c r="BJ58" s="65">
+        <f t="shared" si="39"/>
+        <v>737877.06452593289</v>
+      </c>
+      <c r="BK58" s="65">
+        <f t="shared" si="39"/>
+        <v>767392.14710697019</v>
+      </c>
+      <c r="BL58" s="65">
+        <f t="shared" si="39"/>
+        <v>798087.83299124904</v>
+      </c>
+      <c r="BM58" s="65">
+        <f t="shared" si="39"/>
+        <v>830011.34631089901</v>
+      </c>
+      <c r="BN58" s="65">
+        <f t="shared" si="39"/>
+        <v>863211.80016333505</v>
+      </c>
+      <c r="BO58" s="65">
+        <f t="shared" si="39"/>
+        <v>897740.27216986846</v>
+      </c>
+      <c r="BP58" s="65">
+        <f t="shared" si="39"/>
+        <v>933649.88305666321</v>
+      </c>
+      <c r="BQ58" s="65">
+        <f t="shared" si="39"/>
+        <v>970995.8783789298</v>
+      </c>
+      <c r="BR58" s="65">
+        <f t="shared" si="39"/>
+        <v>1009835.713514087</v>
+      </c>
+      <c r="BS58" s="65">
+        <f t="shared" si="39"/>
+        <v>1050229.1420546505</v>
+      </c>
+      <c r="BT58" s="65">
+        <f t="shared" si="39"/>
+        <v>1092238.3077368366</v>
+      </c>
+      <c r="BU58" s="65">
+        <f t="shared" si="39"/>
+        <v>1135927.8400463101</v>
+      </c>
+      <c r="BV58" s="65">
+        <f t="shared" si="39"/>
+        <v>1181364.9536481625</v>
+      </c>
+      <c r="BW58" s="65">
+        <f t="shared" si="39"/>
+        <v>1228619.5517940891</v>
+      </c>
+      <c r="BX58" s="65">
+        <f t="shared" si="39"/>
+        <v>1277764.3338658528</v>
+      </c>
+      <c r="BY58" s="65">
+        <f t="shared" si="39"/>
+        <v>1328874.907220487</v>
+      </c>
+      <c r="BZ58" s="65">
+        <f t="shared" si="39"/>
+        <v>1382029.9035093065</v>
+      </c>
+      <c r="CA58" s="65">
+        <f t="shared" si="39"/>
+        <v>1437311.0996496787</v>
+      </c>
+      <c r="CB58" s="65">
+        <f t="shared" si="39"/>
+        <v>1494803.5436356659</v>
+      </c>
+      <c r="CC58" s="65">
+        <f t="shared" si="39"/>
+        <v>1554595.6853810926</v>
+      </c>
+      <c r="CD58" s="65">
+        <f t="shared" si="39"/>
+        <v>1616779.5127963363</v>
+      </c>
+      <c r="CE58" s="65">
+        <f t="shared" si="39"/>
+        <v>1681450.6933081897</v>
+      </c>
+      <c r="CF58" s="65">
+        <f t="shared" ref="CF58:CH58" si="40">CE58*(1+$E$6)</f>
+        <v>1748708.7210405173</v>
+      </c>
+      <c r="CG58" s="65">
         <f t="shared" si="40"/>
-        <v>163194.0013484215</v>
-      </c>
-      <c r="V58" s="65">
+        <v>1818657.0698821382</v>
+      </c>
+      <c r="CH58" s="65">
         <f t="shared" si="40"/>
-        <v>168089.82138887414</v>
-      </c>
-      <c r="W58" s="65">
-        <f t="shared" si="40"/>
-        <v>173132.51603054037</v>
-      </c>
-      <c r="X58" s="65">
-        <f t="shared" si="40"/>
-        <v>178326.49151145658</v>
-      </c>
-      <c r="Y58" s="65">
-        <f t="shared" si="40"/>
-        <v>183676.28625680029</v>
-      </c>
-      <c r="Z58" s="65">
-        <f t="shared" si="40"/>
-        <v>189186.5748445043</v>
-      </c>
-      <c r="AA58" s="65">
-        <f t="shared" si="40"/>
-        <v>194862.17208983944</v>
-      </c>
-      <c r="AB58" s="65">
-        <f t="shared" si="40"/>
-        <v>200708.03725253462</v>
-      </c>
-      <c r="AC58" s="65">
-        <f t="shared" si="40"/>
-        <v>206729.27837011067</v>
-      </c>
-      <c r="AD58" s="65">
-        <f t="shared" si="40"/>
-        <v>212931.15672121401</v>
-      </c>
-      <c r="AE58" s="65">
-        <f t="shared" si="40"/>
-        <v>219319.09142285044</v>
-      </c>
-      <c r="AF58" s="65">
-        <f t="shared" si="40"/>
-        <v>225898.66416553597</v>
-      </c>
-      <c r="AG58" s="65">
-        <f t="shared" si="40"/>
-        <v>232675.62409050207</v>
-      </c>
-      <c r="AH58" s="65">
-        <f t="shared" si="40"/>
-        <v>239655.89281321713</v>
-      </c>
-      <c r="AI58" s="65">
-        <f t="shared" si="40"/>
-        <v>246845.56959761365</v>
-      </c>
-      <c r="AJ58" s="65">
-        <f t="shared" si="40"/>
-        <v>254250.93668554205</v>
-      </c>
-      <c r="AK58" s="65">
-        <f t="shared" si="40"/>
-        <v>261878.46478610832</v>
-      </c>
-      <c r="AL58" s="65">
-        <f t="shared" si="40"/>
-        <v>269734.81872969156</v>
-      </c>
-      <c r="AM58" s="65">
-        <f t="shared" si="40"/>
-        <v>277826.86329158233</v>
-      </c>
-      <c r="AN58" s="65">
-        <f t="shared" si="40"/>
-        <v>286161.66919032979</v>
-      </c>
-      <c r="AO58" s="65">
-        <f t="shared" si="40"/>
-        <v>294746.51926603972</v>
-      </c>
-      <c r="AP58" s="65">
-        <f t="shared" si="40"/>
-        <v>303588.91484402091</v>
-      </c>
-      <c r="AQ58" s="65">
-        <f t="shared" si="40"/>
-        <v>312696.58228934155</v>
-      </c>
-      <c r="AR58" s="65">
-        <f t="shared" si="40"/>
-        <v>322077.47975802183</v>
-      </c>
-      <c r="AS58" s="65">
-        <f t="shared" si="40"/>
-        <v>331739.8041507625</v>
-      </c>
-      <c r="AT58" s="65">
-        <f t="shared" si="40"/>
-        <v>341691.99827528541</v>
-      </c>
-      <c r="AU58" s="65">
-        <f t="shared" si="40"/>
-        <v>351942.75822354399</v>
-      </c>
-      <c r="AV58" s="65">
-        <f t="shared" si="40"/>
-        <v>362501.04097025032</v>
-      </c>
-      <c r="AW58" s="65">
-        <f t="shared" si="40"/>
-        <v>373376.07219935785</v>
-      </c>
-      <c r="AX58" s="65">
-        <f t="shared" si="40"/>
-        <v>384577.35436533857</v>
-      </c>
-      <c r="AY58" s="65">
-        <f t="shared" si="40"/>
-        <v>396114.67499629874</v>
-      </c>
-      <c r="AZ58" s="65">
-        <f t="shared" si="40"/>
-        <v>407998.11524618772</v>
-      </c>
-      <c r="BA58" s="65">
-        <f t="shared" si="40"/>
-        <v>420238.05870357336</v>
-      </c>
-      <c r="BB58" s="65">
-        <f t="shared" si="40"/>
-        <v>432845.20046468056</v>
-      </c>
-      <c r="BC58" s="65">
-        <f t="shared" si="40"/>
-        <v>445830.55647862097</v>
-      </c>
-      <c r="BD58" s="65">
-        <f t="shared" si="40"/>
-        <v>459205.4731729796</v>
-      </c>
-      <c r="BE58" s="65">
-        <f t="shared" si="40"/>
-        <v>472981.63736816903</v>
-      </c>
-      <c r="BF58" s="65">
-        <f t="shared" si="40"/>
-        <v>487171.0864892141</v>
-      </c>
-      <c r="BG58" s="65">
-        <f t="shared" si="40"/>
-        <v>501786.21908389055</v>
-      </c>
-      <c r="BH58" s="65">
-        <f t="shared" si="40"/>
-        <v>516839.80565640726</v>
-      </c>
-      <c r="BI58" s="65">
-        <f t="shared" si="40"/>
-        <v>532344.99982609949</v>
-      </c>
-      <c r="BJ58" s="65">
-        <f t="shared" si="40"/>
-        <v>548315.34982088255</v>
-      </c>
-      <c r="BK58" s="65">
-        <f t="shared" si="40"/>
-        <v>564764.81031550909</v>
-      </c>
-      <c r="BL58" s="65">
-        <f t="shared" si="40"/>
-        <v>581707.75462497433</v>
-      </c>
-      <c r="BM58" s="65">
-        <f t="shared" si="40"/>
-        <v>599158.98726372363</v>
-      </c>
-      <c r="BN58" s="65">
-        <f t="shared" si="40"/>
-        <v>617133.7568816354</v>
-      </c>
-      <c r="BO58" s="65">
-        <f t="shared" si="40"/>
-        <v>635647.76958808443</v>
-      </c>
-      <c r="BP58" s="65">
-        <f t="shared" si="40"/>
-        <v>654717.20267572696</v>
-      </c>
-      <c r="BQ58" s="65">
-        <f t="shared" si="40"/>
-        <v>674358.71875599877</v>
-      </c>
-      <c r="BR58" s="65">
-        <f t="shared" si="40"/>
-        <v>694589.48031867878</v>
-      </c>
-      <c r="BS58" s="65">
-        <f t="shared" si="40"/>
-        <v>715427.16472823918</v>
-      </c>
-      <c r="BT58" s="65">
-        <f t="shared" si="40"/>
-        <v>736889.97967008641</v>
-      </c>
-      <c r="BU58" s="65">
-        <f t="shared" si="40"/>
-        <v>758996.67906018905</v>
-      </c>
-      <c r="BV58" s="65">
-        <f t="shared" si="40"/>
-        <v>781766.5794319947</v>
-      </c>
-      <c r="BW58" s="65">
-        <f t="shared" si="40"/>
-        <v>805219.57681495452</v>
-      </c>
-      <c r="BX58" s="65">
-        <f t="shared" si="40"/>
-        <v>829376.16411940323</v>
-      </c>
-      <c r="BY58" s="65">
-        <f t="shared" si="40"/>
-        <v>854257.44904298533</v>
-      </c>
-      <c r="BZ58" s="65">
-        <f t="shared" si="40"/>
-        <v>879885.17251427495</v>
-      </c>
-      <c r="CA58" s="65">
-        <f t="shared" si="40"/>
-        <v>906281.72768970323</v>
-      </c>
-      <c r="CB58" s="65">
-        <f t="shared" si="40"/>
-        <v>933470.1795203943</v>
-      </c>
-      <c r="CC58" s="65">
-        <f t="shared" si="40"/>
-        <v>961474.28490600619</v>
-      </c>
-      <c r="CD58" s="65">
-        <f t="shared" si="40"/>
-        <v>990318.51345318637</v>
-      </c>
-      <c r="CE58" s="65">
-        <f t="shared" si="40"/>
-        <v>1020028.068856782</v>
-      </c>
-      <c r="CF58" s="65">
-        <f t="shared" ref="CF58:CH58" si="41">CE58*(1+$E$6)</f>
-        <v>1050628.9109224856</v>
-      </c>
-      <c r="CG58" s="65">
-        <f t="shared" si="41"/>
-        <v>1082147.7782501602</v>
-      </c>
-      <c r="CH58" s="65">
-        <f t="shared" si="41"/>
-        <v>1114612.211597665</v>
+        <v>1891403.3526774237</v>
       </c>
     </row>
     <row r="59" spans="1:86" x14ac:dyDescent="0.25">
@@ -4299,15 +4277,14 @@
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="89"/>
-      <c r="N59" s="89"/>
-      <c r="O59" s="89"/>
-      <c r="P59" s="89"/>
-      <c r="Q59" s="89"/>
-      <c r="R59" s="91"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -4315,68 +4292,68 @@
         <v>27</v>
       </c>
       <c r="C60" s="12">
-        <f>C56+C47+C50-C53</f>
-        <v>4640</v>
+        <f t="shared" ref="C60:R60" si="41">C56+C47+C50-C53</f>
+        <v>3102</v>
       </c>
       <c r="D60" s="12">
-        <f>D56+D47+D50-D53</f>
-        <v>16575</v>
+        <f t="shared" si="41"/>
+        <v>14181</v>
       </c>
       <c r="E60" s="12">
-        <f>E56+E47+E50-E53</f>
-        <v>24281</v>
+        <f t="shared" si="41"/>
+        <v>19533</v>
       </c>
       <c r="F60" s="12">
-        <f>F56+F47+F50-F53</f>
-        <v>-2679</v>
+        <f t="shared" si="41"/>
+        <v>-8405</v>
       </c>
       <c r="G60" s="12">
-        <f>G56+G47+G50-G53</f>
-        <v>22661</v>
+        <f t="shared" si="41"/>
+        <v>13079</v>
       </c>
       <c r="H60" s="12">
-        <f>H56+H47+H50-H53</f>
-        <v>8193</v>
+        <f t="shared" si="41"/>
+        <v>14627</v>
       </c>
       <c r="I60" s="73">
-        <f>I56+I47+I50-I53</f>
-        <v>19863.632009600002</v>
+        <f t="shared" si="41"/>
+        <v>31212.366345599996</v>
       </c>
       <c r="J60" s="12">
-        <f>J56+J47+J50-J53</f>
-        <v>24352.294471599998</v>
+        <f t="shared" si="41"/>
+        <v>41100.068812600017</v>
       </c>
       <c r="K60" s="12">
-        <f>K56+K47+K50-K53</f>
-        <v>37712.218357599981</v>
+        <f t="shared" si="41"/>
+        <v>58690.021081600004</v>
       </c>
       <c r="L60" s="12">
-        <f>L56+L47+L50-L53</f>
-        <v>58116.136527200011</v>
+        <f t="shared" si="41"/>
+        <v>67959.53106800004</v>
       </c>
       <c r="M60" s="12">
-        <f>M56+M47+M50-M53</f>
-        <v>70873.809592300036</v>
+        <f t="shared" si="41"/>
+        <v>85914.335396300041</v>
       </c>
       <c r="N60" s="12">
-        <f>N56+N47+N50-N53</f>
-        <v>90868.434949999995</v>
+        <f t="shared" si="41"/>
+        <v>104976.28103999997</v>
       </c>
       <c r="O60" s="12">
-        <f>O56+O47+O50-O53</f>
-        <v>87301.50344876718</v>
+        <f t="shared" si="41"/>
+        <v>93913.415617999999</v>
       </c>
       <c r="P60" s="12">
-        <f>P56+P47+P50-P53</f>
-        <v>93975.848804768699</v>
+        <f t="shared" si="41"/>
+        <v>104907.4458245</v>
       </c>
       <c r="Q60" s="12">
-        <f>Q56+Q47+Q50-Q53</f>
-        <v>117153.31904202652</v>
+        <f t="shared" si="41"/>
+        <v>118562.765231</v>
       </c>
       <c r="R60" s="12">
-        <f>R56+R47+R50-R53</f>
-        <v>131350.52644078716</v>
+        <f t="shared" si="41"/>
+        <v>136504.73066000006</v>
       </c>
     </row>
     <row r="61" spans="1:86" x14ac:dyDescent="0.25">
@@ -4391,44 +4368,44 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="71">
-        <f>I60/((1+$E$5)^I9)</f>
-        <v>17967.775755742281</v>
+        <f t="shared" ref="I61:R61" si="42">I60/((1+$E$5)^I9)</f>
+        <v>28181.177822975671</v>
       </c>
       <c r="J61" s="68">
-        <f>J60/((1+$E$5)^J9)</f>
-        <v>19925.590577346142</v>
+        <f t="shared" si="42"/>
+        <v>33504.831515088204</v>
       </c>
       <c r="K61" s="68">
-        <f>K60/((1+$E$5)^K9)</f>
-        <v>27911.877688660588</v>
+        <f t="shared" si="42"/>
+        <v>43197.797029265043</v>
       </c>
       <c r="L61" s="68">
-        <f>L60/((1+$E$5)^L9)</f>
-        <v>38908.041169423319</v>
+        <f t="shared" si="42"/>
+        <v>45162.726452895229</v>
       </c>
       <c r="M61" s="68">
-        <f>M60/((1+$E$5)^M9)</f>
-        <v>42920.430238601562</v>
+        <f t="shared" si="42"/>
+        <v>51549.903693536922</v>
       </c>
       <c r="N61" s="68">
-        <f>N60/((1+$E$5)^N9)</f>
-        <v>49776.802470427501</v>
+        <f t="shared" si="42"/>
+        <v>56870.343463520963</v>
       </c>
       <c r="O61" s="68">
-        <f>O60/((1+$E$5)^O9)</f>
-        <v>43258.487225955432</v>
+        <f t="shared" si="42"/>
+        <v>45936.16644592653</v>
       </c>
       <c r="P61" s="68">
-        <f>P60/((1+$E$5)^P9)</f>
-        <v>42121.276078066592</v>
+        <f t="shared" si="42"/>
+        <v>46330.380909533858</v>
       </c>
       <c r="Q61" s="68">
-        <f>Q60/((1+$E$5)^Q9)</f>
-        <v>47498.021269758276</v>
+        <f t="shared" si="42"/>
+        <v>47275.956224873902</v>
       </c>
       <c r="R61" s="68">
-        <f>R60/((1+$E$5)^R9)</f>
-        <v>48171.30326491384</v>
+        <f t="shared" si="42"/>
+        <v>49144.186352416713</v>
       </c>
     </row>
     <row r="62" spans="1:86" x14ac:dyDescent="0.25">
@@ -4458,7 +4435,7 @@
       </c>
       <c r="C63" s="28">
         <f>(R60*(1+$E$6))/($E$5-$E$6)</f>
-        <v>1791596.355847032</v>
+        <v>2101292.9450189257</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
@@ -4466,7 +4443,7 @@
       </c>
       <c r="F63" s="19">
         <f>NPV($E$5,I58:CH58)</f>
-        <v>1129867.8246856509</v>
+        <v>1077182.4306831502</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -4487,7 +4464,7 @@
       </c>
       <c r="C64" s="29">
         <f>C63/((1+$E$5)^$R$9)</f>
-        <v>657047.47232001019</v>
+        <v>756503.68724758574</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="3"/>
@@ -4525,22 +4502,22 @@
       <c r="K65" s="55"/>
       <c r="L65" s="57">
         <f>D71</f>
-        <v>103.06653632669165</v>
+        <v>108.64615771918281</v>
       </c>
       <c r="M65" s="58">
         <v>-0.01</v>
       </c>
       <c r="N65" s="58">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O65" s="58">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="P65" s="58">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q65" s="58">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4557,34 +4534,34 @@
       <c r="F66" s="1"/>
       <c r="G66" s="28">
         <f>C64+SUM(I61:R61)</f>
-        <v>1035507.0780589058</v>
+        <v>1203657.1571576188</v>
       </c>
       <c r="H66" s="19">
         <f>F63</f>
-        <v>1129867.8246856509</v>
+        <v>1077182.4306831502</v>
       </c>
       <c r="I66" s="16"/>
       <c r="J66" s="1"/>
       <c r="K66" s="55"/>
       <c r="L66" s="59">
-        <f>L67-2%</f>
-        <v>6.5514242810595466E-2</v>
+        <f>L67-1%</f>
+        <v>8.5514242810595484E-2</v>
       </c>
       <c r="M66" s="60">
         <f t="dataTable" ref="M66:Q70" dt2D="1" dtr="1" r1="E6" r2="E5"/>
-        <v>139.38517208644032</v>
+        <v>101.49254922453167</v>
       </c>
       <c r="N66" s="60">
-        <v>174.44917993254273</v>
+        <v>146.74956344376011</v>
       </c>
       <c r="O66" s="60">
-        <v>242.93954629058325</v>
+        <v>169.22136621404752</v>
       </c>
       <c r="P66" s="60">
-        <v>308.56132146074287</v>
+        <v>202.35288385611</v>
       </c>
       <c r="Q66" s="60">
-        <v>436.63128524809912</v>
+        <v>256.18533103802969</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4605,23 +4582,23 @@
       <c r="J67" s="1"/>
       <c r="K67" s="56"/>
       <c r="L67" s="59">
-        <f>L68-2%</f>
-        <v>8.551424281059547E-2</v>
+        <f>L68-1%</f>
+        <v>9.5514242810595479E-2</v>
       </c>
       <c r="M67" s="60">
-        <v>101.91420300060589</v>
+        <v>88.825894055090259</v>
       </c>
       <c r="N67" s="61">
-        <v>119.63386417235762</v>
+        <v>121.20218748147767</v>
       </c>
       <c r="O67" s="61">
-        <v>149.2112829470228</v>
+        <v>136.07639691325215</v>
       </c>
       <c r="P67" s="61">
-        <v>172.57943009204195</v>
+        <v>156.72521747585864</v>
       </c>
       <c r="Q67" s="60">
-        <v>206.83914964441539</v>
+        <v>187.15085103150352</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4635,11 +4612,11 @@
       <c r="F68" s="6"/>
       <c r="G68" s="34">
         <f>(G66+D66-D67)</f>
-        <v>1019249.0780589059</v>
+        <v>1187399.1571576188</v>
       </c>
       <c r="H68" s="35">
         <f>(H66+D66-D67)</f>
-        <v>1113609.8246856509</v>
+        <v>1060924.4306831502</v>
       </c>
       <c r="I68" s="16"/>
       <c r="J68"/>
@@ -4650,19 +4627,19 @@
         <v>0.10551424281059547</v>
       </c>
       <c r="M68" s="60">
-        <v>78.129982017612519</v>
+        <v>78.507094969281454</v>
       </c>
       <c r="N68" s="61">
-        <v>88.051148419558004</v>
+        <v>102.32618267182048</v>
       </c>
       <c r="O68" s="63">
-        <v>103.06653632669165</v>
+        <v>112.61288536561112</v>
       </c>
       <c r="P68" s="61">
-        <v>113.81672258709895</v>
+        <v>126.29824755934838</v>
       </c>
       <c r="Q68" s="60">
-        <v>128.09051362619249</v>
+        <v>145.28605109255898</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -4682,23 +4659,23 @@
       <c r="J69" s="1"/>
       <c r="K69" s="55"/>
       <c r="L69" s="64">
-        <f>L68+2%</f>
-        <v>0.12551424281059548</v>
+        <f>L68+1%</f>
+        <v>0.11551424281059547</v>
       </c>
       <c r="M69" s="60">
-        <v>61.949750970896574</v>
+        <v>69.968740745817684</v>
       </c>
       <c r="N69" s="61">
-        <v>67.919312688805277</v>
+        <v>87.897086356878248</v>
       </c>
       <c r="O69" s="61">
-        <v>76.357398841393149</v>
+        <v>95.255460010290761</v>
       </c>
       <c r="P69" s="61">
-        <v>82.01959047041899</v>
+        <v>104.73117266613649</v>
       </c>
       <c r="Q69" s="60">
-        <v>89.117991440355041</v>
+        <v>117.3318079541859</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -4709,7 +4686,7 @@
       <c r="C70" s="18"/>
       <c r="D70" s="18">
         <f>D69*$J$5</f>
-        <v>1150586.4000000001</v>
+        <v>1342833.66</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
@@ -4719,23 +4696,23 @@
       <c r="J70" s="1"/>
       <c r="K70" s="55"/>
       <c r="L70" s="64">
-        <f>L69+2%</f>
-        <v>0.14551424281059547</v>
+        <f>L69+1%</f>
+        <v>0.12551424281059548</v>
       </c>
       <c r="M70" s="60">
-        <v>50.378707278696702</v>
+        <v>62.80915236705431</v>
       </c>
       <c r="N70" s="60">
-        <v>54.16684467178348</v>
+        <v>76.563110036053502</v>
       </c>
       <c r="O70" s="60">
-        <v>59.260148364549977</v>
+        <v>81.971831037032842</v>
       </c>
       <c r="P70" s="60">
-        <v>62.523284373560472</v>
+        <v>88.757260950316379</v>
       </c>
       <c r="Q70" s="60">
-        <v>66.45700464859712</v>
+        <v>97.492100232180064</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -4748,16 +4725,16 @@
       </c>
       <c r="D71" s="37">
         <f>(G71+H71)/2</f>
-        <v>103.06653632669165</v>
+        <v>108.64615771918281</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="37">
         <f>G68/D69</f>
-        <v>98.506724466889523</v>
+        <v>114.75781938316602</v>
       </c>
       <c r="H71" s="37">
         <f>H68/D69</f>
-        <v>107.62634818649376</v>
+        <v>102.5344960551996</v>
       </c>
       <c r="I71" s="16"/>
       <c r="J71" s="1"/>
@@ -4869,8 +4846,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="45">
-        <f>AMZN!I44</f>
-        <v>0.2114</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4888,7 +4864,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="45">
-        <v>5.3999999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4924,7 +4900,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="45">
-        <v>4.4999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4971,7 +4947,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="25">
         <f>AMZN!D70</f>
-        <v>1150586.4000000001</v>
+        <v>1342833.66</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -4989,7 +4965,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="25">
         <f>G12+C12</f>
-        <v>1231249.4000000001</v>
+        <v>1423496.66</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -5000,7 +4976,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="47">
         <f>C12/K12</f>
-        <v>0.93448687162812016</v>
+        <v>0.9433346053653543</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -5009,7 +4985,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="48">
         <f>G12/K12</f>
-        <v>6.5513128371879809E-2</v>
+        <v>5.6665394634645649E-2</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -5025,7 +5001,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="49">
         <f>D7+D8*(D9)</f>
-        <v>0.11069999999999999</v>
+        <v>0.11260000000000001</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -5033,7 +5009,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="50">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="51" t="s">
@@ -5042,7 +5018,7 @@
       <c r="J14" s="52"/>
       <c r="K14" s="78">
         <f>C13*C14+G14*G13*(1-D6)</f>
-        <v>0.10551424281059547</v>
+        <v>0.10756074645514095</v>
       </c>
       <c r="L14" s="2"/>
     </row>
